--- a/biology/Biochimie/Leucotriène/Leucotriène.xlsx
+++ b/biology/Biochimie/Leucotriène/Leucotriène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leucotri%C3%A8ne</t>
+          <t>Leucotriène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les leucotriènes sont des lipides, appartenant à la famille des eicosanoïdes. Ils sont le produit de l'action de lipoxygénases sur l'acide arachidonique, l'EPA ou bien encore l'acide dihomo-γ-linolénique. Seule la 5-lipoxygénase permet la synthèse des leucotriènes.
 On distingue deux classes de leucotriènes : 
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leucotri%C3%A8ne</t>
+          <t>Leucotriène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Applications pharmacologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Augmentation de la perméabilité vasculaire
 Contraction des fibres musculaires lisses (bronches)
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leucotri%C3%A8ne</t>
+          <t>Leucotriène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Implications pathologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rhinite allergique
 Asthme
